--- a/Output/all_birds_landcover_probs_final.xlsx
+++ b/Output/all_birds_landcover_probs_final.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="38">
   <si>
     <t>number</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>SIMP 07</t>
+  </si>
+  <si>
+    <t>SIMP 10</t>
   </si>
 </sst>
 </file>
@@ -190,8 +193,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -211,19 +216,21 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -553,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1712,14 +1719,404 @@
         <v>Forest</v>
       </c>
     </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47">
+        <v>8</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.67207208292571297</v>
+      </c>
+      <c r="D47" s="2">
+        <f>C47*100</f>
+        <v>67.207208292571295</v>
+      </c>
+      <c r="E47">
+        <v>95</v>
+      </c>
+      <c r="F47" t="str">
+        <f>VLOOKUP(E47,'Landcover Classes'!A:B,2,FALSE)</f>
+        <v>Emergent Herbaceous Wetlands</v>
+      </c>
+      <c r="G47" t="str">
+        <f>VLOOKUP(F47,'Landcover Classes'!B:C,2,FALSE)</f>
+        <v>Wetlands</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.13362699430094199</v>
+      </c>
+      <c r="D48" s="2">
+        <f>C48*100</f>
+        <v>13.362699430094199</v>
+      </c>
+      <c r="E48">
+        <v>71</v>
+      </c>
+      <c r="F48" t="str">
+        <f>VLOOKUP(E48,'Landcover Classes'!A:B,2,FALSE)</f>
+        <v>Grassland/Herbaceous</v>
+      </c>
+      <c r="G48" t="str">
+        <f>VLOOKUP(F48,'Landcover Classes'!B:C,2,FALSE)</f>
+        <v>Herbaceous</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49">
+        <v>9</v>
+      </c>
+      <c r="C49" s="1">
+        <v>9.8163765339154704E-2</v>
+      </c>
+      <c r="D49" s="2">
+        <f>C49*100</f>
+        <v>9.81637653391547</v>
+      </c>
+      <c r="E49">
+        <v>11</v>
+      </c>
+      <c r="F49" t="str">
+        <f>VLOOKUP(E49,'Landcover Classes'!A:B,2,FALSE)</f>
+        <v>open water</v>
+      </c>
+      <c r="G49" t="str">
+        <f>VLOOKUP(F49,'Landcover Classes'!B:C,2,FALSE)</f>
+        <v>Water</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50">
+        <v>15</v>
+      </c>
+      <c r="C50" s="1">
+        <v>7.1143003186189505E-2</v>
+      </c>
+      <c r="D50" s="2">
+        <f>C50*100</f>
+        <v>7.1143003186189508</v>
+      </c>
+      <c r="E50">
+        <v>41</v>
+      </c>
+      <c r="F50" t="str">
+        <f>VLOOKUP(E50,'Landcover Classes'!A:B,2,FALSE)</f>
+        <v>Deciduous Forest</v>
+      </c>
+      <c r="G50" t="str">
+        <f>VLOOKUP(F50,'Landcover Classes'!B:C,2,FALSE)</f>
+        <v>Forest</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2.4435286274402099E-2</v>
+      </c>
+      <c r="D51" s="2">
+        <f>C51*100</f>
+        <v>2.4435286274402097</v>
+      </c>
+      <c r="E51">
+        <v>21</v>
+      </c>
+      <c r="F51" t="str">
+        <f>VLOOKUP(E51,'Landcover Classes'!A:B,2,FALSE)</f>
+        <v>developed, open space</v>
+      </c>
+      <c r="G51" t="str">
+        <f>VLOOKUP(F51,'Landcover Classes'!B:C,2,FALSE)</f>
+        <v>Developed</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>37</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52" s="1">
+        <v>4.7748993973115698E-4</v>
+      </c>
+      <c r="D52" s="2">
+        <f>C52*100</f>
+        <v>4.7748993973115696E-2</v>
+      </c>
+      <c r="E52">
+        <v>81</v>
+      </c>
+      <c r="F52" t="str">
+        <f>VLOOKUP(E52,'Landcover Classes'!A:B,2,FALSE)</f>
+        <v>Pasture/Hay</v>
+      </c>
+      <c r="G52" t="str">
+        <f>VLOOKUP(F52,'Landcover Classes'!B:C,2,FALSE)</f>
+        <v>Planted/Cultivated</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>37</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53" s="1">
+        <v>5.1241646149975498E-5</v>
+      </c>
+      <c r="D53" s="2">
+        <f>C53*100</f>
+        <v>5.1241646149975499E-3</v>
+      </c>
+      <c r="E53">
+        <v>22</v>
+      </c>
+      <c r="F53" t="str">
+        <f>VLOOKUP(E53,'Landcover Classes'!A:B,2,FALSE)</f>
+        <v>developed, low intensity</v>
+      </c>
+      <c r="G53" t="str">
+        <f>VLOOKUP(F53,'Landcover Classes'!B:C,2,FALSE)</f>
+        <v>Developed</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>37</v>
+      </c>
+      <c r="B54">
+        <v>7</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1.4344505104629399E-5</v>
+      </c>
+      <c r="D54" s="2">
+        <f>C54*100</f>
+        <v>1.43445051046294E-3</v>
+      </c>
+      <c r="E54">
+        <v>90</v>
+      </c>
+      <c r="F54" t="str">
+        <f>VLOOKUP(E54,'Landcover Classes'!A:B,2,FALSE)</f>
+        <v>Woody Wetlands</v>
+      </c>
+      <c r="G54" t="str">
+        <f>VLOOKUP(F54,'Landcover Classes'!B:C,2,FALSE)</f>
+        <v>Wetlands</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>37</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1.2201418062593299E-5</v>
+      </c>
+      <c r="D55" s="2">
+        <f>C55*100</f>
+        <v>1.22014180625933E-3</v>
+      </c>
+      <c r="E55">
+        <v>82</v>
+      </c>
+      <c r="F55" t="str">
+        <f>VLOOKUP(E55,'Landcover Classes'!A:B,2,FALSE)</f>
+        <v>Cultivated Crop</v>
+      </c>
+      <c r="G55" t="str">
+        <f>VLOOKUP(F55,'Landcover Classes'!B:C,2,FALSE)</f>
+        <v>Planted/Cultivated</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>37</v>
+      </c>
+      <c r="B56">
+        <v>10</v>
+      </c>
+      <c r="C56" s="1">
+        <v>2.6654819112824599E-6</v>
+      </c>
+      <c r="D56" s="2">
+        <f>C56*100</f>
+        <v>2.6654819112824601E-4</v>
+      </c>
+      <c r="E56">
+        <v>23</v>
+      </c>
+      <c r="F56" t="str">
+        <f>VLOOKUP(E56,'Landcover Classes'!A:B,2,FALSE)</f>
+        <v>developed, medium intensity</v>
+      </c>
+      <c r="G56" t="str">
+        <f>VLOOKUP(F56,'Landcover Classes'!B:C,2,FALSE)</f>
+        <v>Developed</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>37</v>
+      </c>
+      <c r="B57">
+        <v>13</v>
+      </c>
+      <c r="C57" s="1">
+        <v>7.5211649624323396E-7</v>
+      </c>
+      <c r="D57" s="2">
+        <f>C57*100</f>
+        <v>7.5211649624323392E-5</v>
+      </c>
+      <c r="E57">
+        <v>42</v>
+      </c>
+      <c r="F57" t="str">
+        <f>VLOOKUP(E57,'Landcover Classes'!A:B,2,FALSE)</f>
+        <v>Evergreen Forest</v>
+      </c>
+      <c r="G57" t="str">
+        <f>VLOOKUP(F57,'Landcover Classes'!B:C,2,FALSE)</f>
+        <v>Forest</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58">
+        <v>11</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1.6991456645396499E-7</v>
+      </c>
+      <c r="D58" s="2">
+        <f>C58*100</f>
+        <v>1.6991456645396498E-5</v>
+      </c>
+      <c r="E58">
+        <v>24</v>
+      </c>
+      <c r="F58" t="str">
+        <f>VLOOKUP(E58,'Landcover Classes'!A:B,2,FALSE)</f>
+        <v>developed, high intensity</v>
+      </c>
+      <c r="G58" t="str">
+        <f>VLOOKUP(F58,'Landcover Classes'!B:C,2,FALSE)</f>
+        <v>Developed</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>37</v>
+      </c>
+      <c r="B59">
+        <v>12</v>
+      </c>
+      <c r="C59" s="1">
+        <v>2.9515765007141902E-9</v>
+      </c>
+      <c r="D59" s="2">
+        <f>C59*100</f>
+        <v>2.9515765007141901E-7</v>
+      </c>
+      <c r="E59">
+        <v>31</v>
+      </c>
+      <c r="F59" t="str">
+        <f>VLOOKUP(E59,'Landcover Classes'!A:B,2,FALSE)</f>
+        <v>Barren Land (Rock/Sand/Clay)</v>
+      </c>
+      <c r="G59" t="str">
+        <f>VLOOKUP(F59,'Landcover Classes'!B:C,2,FALSE)</f>
+        <v>Barren</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60">
+        <v>6</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0</v>
+      </c>
+      <c r="D60" s="2">
+        <f>C60*100</f>
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>52</v>
+      </c>
+      <c r="F60" t="str">
+        <f>VLOOKUP(E60,'Landcover Classes'!A:B,2,FALSE)</f>
+        <v>Shrub/Scrub</v>
+      </c>
+      <c r="G60" t="str">
+        <f>VLOOKUP(F60,'Landcover Classes'!B:C,2,FALSE)</f>
+        <v>Shrubland</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61">
+        <v>14</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0</v>
+      </c>
+      <c r="D61" s="2">
+        <f>C61*100</f>
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>43</v>
+      </c>
+      <c r="F61" t="str">
+        <f>VLOOKUP(E61,'Landcover Classes'!A:B,2,FALSE)</f>
+        <v>Mixed Forest</v>
+      </c>
+      <c r="G61" t="str">
+        <f>VLOOKUP(F61,'Landcover Classes'!B:C,2,FALSE)</f>
+        <v>Forest</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A32:G46">
-    <sortCondition descending="1" ref="D32:D46"/>
+  <sortState ref="A47:G61">
+    <sortCondition descending="1" ref="D47:D61"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
-    <ignoredError sqref="G18:G31 F18:F31 F32:G46" emptyCellReference="1"/>
+    <ignoredError sqref="G18:G31 F18:F31 F32:G46 F47:G61" emptyCellReference="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/Output/all_birds_landcover_probs_final.xlsx
+++ b/Output/all_birds_landcover_probs_final.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7500" yWindow="0" windowWidth="25040" windowHeight="16980" tabRatio="500"/>
+    <workbookView xWindow="100" yWindow="20" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="all_birds_landcover_probs_final" sheetId="1" r:id="rId1"/>
     <sheet name="Summary" sheetId="2" r:id="rId2"/>
-    <sheet name="Landcover Classes" sheetId="3" r:id="rId3"/>
+    <sheet name="figure" sheetId="4" r:id="rId3"/>
+    <sheet name="Landcover Classes" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="42">
   <si>
     <t>number</t>
   </si>
@@ -119,9 +120,6 @@
     <t>Herbaceous (Grasslands)</t>
   </si>
   <si>
-    <t>Cultivated (Pasture/Hay/Crop)</t>
-  </si>
-  <si>
     <t>Bird ID</t>
   </si>
   <si>
@@ -135,6 +133,21 @@
   </si>
   <si>
     <t>SIMP 10</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Cultivated</t>
+  </si>
+  <si>
+    <t>Wetland</t>
+  </si>
+  <si>
+    <t>Grassland</t>
   </si>
 </sst>
 </file>
@@ -144,7 +157,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000000000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -175,6 +188,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -184,7 +205,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -192,8 +213,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -209,14 +239,86 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="83">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -224,6 +326,40 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -231,11 +367,716 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0627472570027107"/>
+          <c:y val="0.0505952380952381"/>
+          <c:w val="0.879528204466245"/>
+          <c:h val="0.845304883764529"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>figure!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIMP 01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>figure!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Wetland</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Grassland</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Developed</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Water</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Cultivated</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Forest</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Barren</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Shrubland</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>figure!$B$2:$I$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.837</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0749</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0711</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0148</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>figure!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIMP 02</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>figure!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Wetland</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Grassland</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Developed</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Water</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Cultivated</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Forest</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Barren</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Shrubland</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>figure!$B$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.723412083116989</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.161742480062894</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0284736607384019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0689649265227174</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00594846577232556</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.00215741003902523</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.28208486178521E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.47427762692262E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>figure!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIMP 07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>figure!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Wetland</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Grassland</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Developed</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Water</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Cultivated</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Forest</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Barren</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Shrubland</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>figure!$B$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.735257314997121</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.204382126880157</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0119114915483415</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0233705492810814</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.000956558707659985</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0232015604725899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.000870077966402296</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.56950806375848E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>figure!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIMP 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>figure!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Wetland</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Grassland</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Developed</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Water</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Cultivated</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Forest</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Barren</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Shrubland</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>figure!$B$5:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.672086427430818</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.133626994300942</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0244893633170298</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0981637653391547</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00048969135779375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0711437553026858</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.95157650071419E-9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2114203992"/>
+        <c:axId val="-2114200088"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2114203992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2114200088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2114200088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2114203992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.304570543436169"/>
+          <c:y val="0.0798636107986502"/>
+          <c:w val="0.438052407383503"/>
+          <c:h val="0.0545584926884139"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>figure!$B$7:$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Wetland</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Grassland</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Developed</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Water</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Cultivated</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Forest</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Barren</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Shrubland</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>figure!$B$6:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.741938956386232</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.143662900310998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0339936289009433</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0513248102857384</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00222367895944482</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0242756814535752</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.000218590750710145</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.51094642267027E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2100564744"/>
+        <c:axId val="-2097051304"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2100564744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2097051304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2097051304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2100564744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -560,10 +1401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -575,7 +1416,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -598,7 +1439,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -621,7 +1462,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -644,7 +1485,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -667,7 +1508,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -690,7 +1531,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6">
         <v>9</v>
@@ -713,7 +1554,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -736,7 +1577,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -759,7 +1600,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9">
         <v>15</v>
@@ -782,7 +1623,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -805,7 +1646,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>7</v>
@@ -828,7 +1669,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12">
         <v>13</v>
@@ -851,7 +1692,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13">
         <v>11</v>
@@ -874,7 +1715,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14">
         <v>12</v>
@@ -897,7 +1738,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -920,7 +1761,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -941,9 +1782,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17">
         <v>8</v>
@@ -952,7 +1793,7 @@
         <v>0.72244674523876196</v>
       </c>
       <c r="D17" s="2">
-        <f>C17*100</f>
+        <f t="shared" ref="D17:D61" si="0">C17*100</f>
         <v>72.244674523876199</v>
       </c>
       <c r="E17">
@@ -964,10 +1805,11 @@
       <c r="G17" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -976,7 +1818,7 @@
         <v>0.16174248006289399</v>
       </c>
       <c r="D18" s="2">
-        <f>C18*100</f>
+        <f t="shared" si="0"/>
         <v>16.1742480062894</v>
       </c>
       <c r="E18">
@@ -991,9 +1833,9 @@
         <v>Herbaceous</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19">
         <v>9</v>
@@ -1002,7 +1844,7 @@
         <v>6.8964926522717407E-2</v>
       </c>
       <c r="D19" s="2">
-        <f>C19*100</f>
+        <f t="shared" si="0"/>
         <v>6.8964926522717409</v>
       </c>
       <c r="E19">
@@ -1017,9 +1859,9 @@
         <v>Water</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20">
         <v>10</v>
@@ -1028,7 +1870,7 @@
         <v>1.46727894682025E-2</v>
       </c>
       <c r="D20" s="2">
-        <f>C20*100</f>
+        <f t="shared" si="0"/>
         <v>1.4672789468202501</v>
       </c>
       <c r="E20">
@@ -1043,9 +1885,9 @@
         <v>Developed</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -1054,7 +1896,7 @@
         <v>1.0986692692393199E-2</v>
       </c>
       <c r="D21" s="2">
-        <f>C21*100</f>
+        <f t="shared" si="0"/>
         <v>1.0986692692393198</v>
       </c>
       <c r="E21">
@@ -1069,9 +1911,9 @@
         <v>Developed</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -1080,7 +1922,7 @@
         <v>9.2319488865153301E-3</v>
       </c>
       <c r="D22" s="2">
-        <f>C22*100</f>
+        <f t="shared" si="0"/>
         <v>0.92319488865153299</v>
       </c>
       <c r="E22">
@@ -1095,9 +1937,9 @@
         <v>Developed</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23">
         <v>5</v>
@@ -1106,7 +1948,7 @@
         <v>5.9470965287669502E-3</v>
       </c>
       <c r="D23" s="2">
-        <f>C23*100</f>
+        <f t="shared" si="0"/>
         <v>0.59470965287669497</v>
       </c>
       <c r="E23">
@@ -1121,9 +1963,9 @@
         <v>Planted/Cultivated</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24">
         <v>11</v>
@@ -1132,7 +1974,7 @@
         <v>2.8141785778061802E-3</v>
       </c>
       <c r="D24" s="2">
-        <f>C24*100</f>
+        <f t="shared" si="0"/>
         <v>0.28141785778061801</v>
       </c>
       <c r="E24">
@@ -1147,9 +1989,9 @@
         <v>Developed</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25">
         <v>15</v>
@@ -1158,7 +2000,7 @@
         <v>2.15735910069734E-3</v>
       </c>
       <c r="D25" s="2">
-        <f>C25*100</f>
+        <f t="shared" si="0"/>
         <v>0.215735910069734</v>
       </c>
       <c r="E25">
@@ -1173,9 +2015,9 @@
         <v>Forest</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26">
         <v>7</v>
@@ -1184,7 +2026,7 @@
         <v>9.6533787822672705E-4</v>
       </c>
       <c r="D26" s="2">
-        <f>C26*100</f>
+        <f t="shared" si="0"/>
         <v>9.6533787822672704E-2</v>
       </c>
       <c r="E26">
@@ -1199,9 +2041,9 @@
         <v>Wetlands</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>6</v>
@@ -1210,7 +2052,7 @@
         <v>6.4742776269226197E-5</v>
       </c>
       <c r="D27" s="2">
-        <f>C27*100</f>
+        <f t="shared" si="0"/>
         <v>6.4742776269226194E-3</v>
       </c>
       <c r="E27">
@@ -1225,9 +2067,9 @@
         <v>Shrubland</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28">
         <v>12</v>
@@ -1236,7 +2078,7 @@
         <v>4.2820848617852098E-6</v>
       </c>
       <c r="D28" s="2">
-        <f>C28*100</f>
+        <f t="shared" si="0"/>
         <v>4.2820848617852096E-4</v>
       </c>
       <c r="E28">
@@ -1251,9 +2093,9 @@
         <v>Barren</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -1262,7 +2104,7 @@
         <v>1.36924355860983E-6</v>
       </c>
       <c r="D29" s="2">
-        <f>C29*100</f>
+        <f t="shared" si="0"/>
         <v>1.3692435586098301E-4</v>
       </c>
       <c r="E29">
@@ -1277,9 +2119,9 @@
         <v>Planted/Cultivated</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30">
         <v>14</v>
@@ -1288,7 +2130,7 @@
         <v>4.9616784340738502E-8</v>
       </c>
       <c r="D30" s="2">
-        <f>C30*100</f>
+        <f t="shared" si="0"/>
         <v>4.96167843407385E-6</v>
       </c>
       <c r="E30">
@@ -1303,9 +2145,9 @@
         <v>Forest</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31">
         <v>13</v>
@@ -1314,7 +2156,7 @@
         <v>1.3215435496350399E-9</v>
       </c>
       <c r="D31" s="2">
-        <f>C31*100</f>
+        <f t="shared" si="0"/>
         <v>1.3215435496350399E-7</v>
       </c>
       <c r="E31">
@@ -1329,9 +2171,9 @@
         <v>Forest</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32">
         <v>8</v>
@@ -1340,7 +2182,7 @@
         <v>0.733064181674418</v>
       </c>
       <c r="D32" s="2">
-        <f>C32*100</f>
+        <f t="shared" si="0"/>
         <v>73.306418167441805</v>
       </c>
       <c r="E32">
@@ -1357,7 +2199,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1366,7 +2208,7 @@
         <v>0.204382126880157</v>
       </c>
       <c r="D33" s="2">
-        <f>C33*100</f>
+        <f t="shared" si="0"/>
         <v>20.4382126880157</v>
       </c>
       <c r="E33">
@@ -1383,7 +2225,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34">
         <v>9</v>
@@ -1392,7 +2234,7 @@
         <v>2.3370549281081399E-2</v>
       </c>
       <c r="D34" s="2">
-        <f>C34*100</f>
+        <f t="shared" si="0"/>
         <v>2.3370549281081399</v>
       </c>
       <c r="E34">
@@ -1409,7 +2251,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>15</v>
@@ -1418,7 +2260,7 @@
         <v>2.31995985498985E-2</v>
       </c>
       <c r="D35" s="2">
-        <f>C35*100</f>
+        <f t="shared" si="0"/>
         <v>2.3199598549898499</v>
       </c>
       <c r="E35">
@@ -1435,7 +2277,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -1444,7 +2286,7 @@
         <v>1.15402664705228E-2</v>
       </c>
       <c r="D36" s="2">
-        <f>C36*100</f>
+        <f t="shared" si="0"/>
         <v>1.15402664705228</v>
       </c>
       <c r="E36">
@@ -1461,7 +2303,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>7</v>
@@ -1470,7 +2312,7 @@
         <v>2.1931333227029701E-3</v>
       </c>
       <c r="D37" s="2">
-        <f>C37*100</f>
+        <f t="shared" si="0"/>
         <v>0.21931333227029701</v>
       </c>
       <c r="E37">
@@ -1487,7 +2329,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38">
         <v>12</v>
@@ -1496,7 +2338,7 @@
         <v>8.7007796640229599E-4</v>
       </c>
       <c r="D38" s="2">
-        <f>C38*100</f>
+        <f t="shared" si="0"/>
         <v>8.7007796640229604E-2</v>
       </c>
       <c r="E38">
@@ -1513,7 +2355,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -1522,7 +2364,7 @@
         <v>5.1403843615867903E-4</v>
       </c>
       <c r="D39" s="2">
-        <f>C39*100</f>
+        <f t="shared" si="0"/>
         <v>5.1403843615867903E-2</v>
       </c>
       <c r="E39">
@@ -1539,7 +2381,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40">
         <v>5</v>
@@ -1548,7 +2390,7 @@
         <v>4.4252027150130599E-4</v>
       </c>
       <c r="D40" s="2">
-        <f>C40*100</f>
+        <f t="shared" si="0"/>
         <v>4.4252027150130602E-2</v>
       </c>
       <c r="E40">
@@ -1565,7 +2407,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41">
         <v>10</v>
@@ -1574,7 +2416,7 @@
         <v>2.3513641979607799E-4</v>
       </c>
       <c r="D41" s="2">
-        <f>C41*100</f>
+        <f t="shared" si="0"/>
         <v>2.3513641979607799E-2</v>
       </c>
       <c r="E41">
@@ -1591,7 +2433,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B42">
         <v>4</v>
@@ -1600,7 +2442,7 @@
         <v>1.3608865802263999E-4</v>
       </c>
       <c r="D42" s="2">
-        <f>C42*100</f>
+        <f t="shared" si="0"/>
         <v>1.3608865802264E-2</v>
       </c>
       <c r="E42">
@@ -1617,7 +2459,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B43">
         <v>6</v>
@@ -1626,7 +2468,7 @@
         <v>3.5695080637584801E-5</v>
       </c>
       <c r="D43" s="2">
-        <f>C43*100</f>
+        <f t="shared" si="0"/>
         <v>3.5695080637584801E-3</v>
       </c>
       <c r="E43">
@@ -1643,7 +2485,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B44">
         <v>11</v>
@@ -1652,7 +2494,7 @@
         <v>1.4625066009155E-5</v>
       </c>
       <c r="D44" s="2">
-        <f>C44*100</f>
+        <f t="shared" si="0"/>
         <v>1.4625066009155E-3</v>
       </c>
       <c r="E44">
@@ -1669,7 +2511,7 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B45">
         <v>13</v>
@@ -1678,7 +2520,7 @@
         <v>1.9619226914030899E-6</v>
       </c>
       <c r="D45" s="2">
-        <f>C45*100</f>
+        <f t="shared" si="0"/>
         <v>1.9619226914030898E-4</v>
       </c>
       <c r="E45">
@@ -1695,7 +2537,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B46">
         <v>14</v>
@@ -1704,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="D46" s="2">
-        <f>C46*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E46">
@@ -1721,7 +2563,7 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B47">
         <v>8</v>
@@ -1730,7 +2572,7 @@
         <v>0.67207208292571297</v>
       </c>
       <c r="D47" s="2">
-        <f>C47*100</f>
+        <f t="shared" si="0"/>
         <v>67.207208292571295</v>
       </c>
       <c r="E47">
@@ -1747,7 +2589,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -1756,7 +2598,7 @@
         <v>0.13362699430094199</v>
       </c>
       <c r="D48" s="2">
-        <f>C48*100</f>
+        <f t="shared" si="0"/>
         <v>13.362699430094199</v>
       </c>
       <c r="E48">
@@ -1773,7 +2615,7 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B49">
         <v>9</v>
@@ -1782,7 +2624,7 @@
         <v>9.8163765339154704E-2</v>
       </c>
       <c r="D49" s="2">
-        <f>C49*100</f>
+        <f t="shared" si="0"/>
         <v>9.81637653391547</v>
       </c>
       <c r="E49">
@@ -1799,7 +2641,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B50">
         <v>15</v>
@@ -1808,7 +2650,7 @@
         <v>7.1143003186189505E-2</v>
       </c>
       <c r="D50" s="2">
-        <f>C50*100</f>
+        <f t="shared" si="0"/>
         <v>7.1143003186189508</v>
       </c>
       <c r="E50">
@@ -1825,7 +2667,7 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -1834,7 +2676,7 @@
         <v>2.4435286274402099E-2</v>
       </c>
       <c r="D51" s="2">
-        <f>C51*100</f>
+        <f t="shared" si="0"/>
         <v>2.4435286274402097</v>
       </c>
       <c r="E51">
@@ -1851,7 +2693,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B52">
         <v>3</v>
@@ -1860,7 +2702,7 @@
         <v>4.7748993973115698E-4</v>
       </c>
       <c r="D52" s="2">
-        <f>C52*100</f>
+        <f t="shared" si="0"/>
         <v>4.7748993973115696E-2</v>
       </c>
       <c r="E52">
@@ -1877,7 +2719,7 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B53">
         <v>4</v>
@@ -1886,7 +2728,7 @@
         <v>5.1241646149975498E-5</v>
       </c>
       <c r="D53" s="2">
-        <f>C53*100</f>
+        <f t="shared" si="0"/>
         <v>5.1241646149975499E-3</v>
       </c>
       <c r="E53">
@@ -1903,7 +2745,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B54">
         <v>7</v>
@@ -1912,7 +2754,7 @@
         <v>1.4344505104629399E-5</v>
       </c>
       <c r="D54" s="2">
-        <f>C54*100</f>
+        <f t="shared" si="0"/>
         <v>1.43445051046294E-3</v>
       </c>
       <c r="E54">
@@ -1929,7 +2771,7 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B55">
         <v>5</v>
@@ -1938,7 +2780,7 @@
         <v>1.2201418062593299E-5</v>
       </c>
       <c r="D55" s="2">
-        <f>C55*100</f>
+        <f t="shared" si="0"/>
         <v>1.22014180625933E-3</v>
       </c>
       <c r="E55">
@@ -1955,7 +2797,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B56">
         <v>10</v>
@@ -1964,7 +2806,7 @@
         <v>2.6654819112824599E-6</v>
       </c>
       <c r="D56" s="2">
-        <f>C56*100</f>
+        <f t="shared" si="0"/>
         <v>2.6654819112824601E-4</v>
       </c>
       <c r="E56">
@@ -1981,7 +2823,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B57">
         <v>13</v>
@@ -1990,7 +2832,7 @@
         <v>7.5211649624323396E-7</v>
       </c>
       <c r="D57" s="2">
-        <f>C57*100</f>
+        <f t="shared" si="0"/>
         <v>7.5211649624323392E-5</v>
       </c>
       <c r="E57">
@@ -2007,7 +2849,7 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B58">
         <v>11</v>
@@ -2016,7 +2858,7 @@
         <v>1.6991456645396499E-7</v>
       </c>
       <c r="D58" s="2">
-        <f>C58*100</f>
+        <f t="shared" si="0"/>
         <v>1.6991456645396498E-5</v>
       </c>
       <c r="E58">
@@ -2033,7 +2875,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B59">
         <v>12</v>
@@ -2042,7 +2884,7 @@
         <v>2.9515765007141902E-9</v>
       </c>
       <c r="D59" s="2">
-        <f>C59*100</f>
+        <f t="shared" si="0"/>
         <v>2.9515765007141901E-7</v>
       </c>
       <c r="E59">
@@ -2059,7 +2901,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B60">
         <v>6</v>
@@ -2068,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="D60" s="2">
-        <f>C60*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E60">
@@ -2085,7 +2927,7 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B61">
         <v>14</v>
@@ -2094,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="D61" s="2">
-        <f>C61*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E61">
@@ -2128,115 +2970,386 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="10.83203125" style="2"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>83.7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
         <v>31</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>7.49</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>7.11</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>1.48</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2">
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>0.06</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2">
+        <v>72.341208311698878</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2">
+        <v>16.1742480062894</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2">
+        <v>6.8964926522717409</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2.8473660738401878</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.59484657723255596</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.21574100390252304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="2">
+        <v>6.4742776269226194E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="2">
+        <v>4.2820848617852096E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2">
+        <v>73.525731499712109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="2">
+        <v>20.4382126880157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2.3370549281081399</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2.3201560472589904</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1.1911491548341517</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="2">
+        <v>8.7007796640229604E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="2">
+        <v>9.5655870765998505E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="2">
+        <v>3.5695080637584801E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="2">
+        <v>67.208642743081754</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="2">
+        <v>13.362699430094199</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="2">
+        <v>9.81637653391547</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="2">
+        <v>7.1143755302685756</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2.4489363317029809</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="2">
+        <v>4.8969135779375027E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2.9515765007141901E-7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2246,6 +3359,252 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="C2" s="2">
+        <v>7.4899999999999994E-2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>7.1099999999999997E-2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1.5E-3</v>
+      </c>
+      <c r="G2" s="2">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <f>SUM(B2:I2)</f>
+        <v>0.9998999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.72341208311698901</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.16174248006289399</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2.84736607384019E-2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>6.8964926522717407E-2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>5.9484657723255603E-3</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2.1574100390252299E-3</v>
+      </c>
+      <c r="H3" s="2">
+        <v>4.2820848617852098E-6</v>
+      </c>
+      <c r="I3" s="2">
+        <v>6.4742776269226197E-5</v>
+      </c>
+      <c r="J3" s="5">
+        <f t="shared" ref="J3:J4" si="0">SUM(B3:I3)</f>
+        <v>0.99076805111348398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.73525731499712099</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.204382126880157</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.19114915483415E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2.3370549281081399E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>9.5655870765998501E-4</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2.3201560472589901E-2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>8.7007796640229599E-4</v>
+      </c>
+      <c r="I4" s="2">
+        <v>3.5695080637584801E-5</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" si="0"/>
+        <v>0.99998537493399065</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.67208642743081803</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.13362699430094199</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2.4489363317029798E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>9.8163765339154704E-2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4.8969135779375003E-4</v>
+      </c>
+      <c r="G5" s="2">
+        <v>7.1143755302685796E-2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2.9515765007141902E-9</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <f>SUM(B5:I5)</f>
+        <v>1.0000000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="4" customFormat="1">
+      <c r="A6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="7">
+        <f>AVERAGE(B2:B5)</f>
+        <v>0.74193895638623197</v>
+      </c>
+      <c r="C6" s="7">
+        <f t="shared" ref="C6:I6" si="1">AVERAGE(C2:C5)</f>
+        <v>0.14366290031099826</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="1"/>
+        <v>3.3993628900943304E-2</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="1"/>
+        <v>5.1324810285738376E-2</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="1"/>
+        <v>2.2236789594448237E-3</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="1"/>
+        <v>2.4275681453575233E-2</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="1"/>
+        <v>2.1859075071014547E-4</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="1"/>
+        <v>2.510946422670275E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>

--- a/Output/all_birds_landcover_probs_final.xlsx
+++ b/Output/all_birds_landcover_probs_final.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="20" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="320" yWindow="580" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="all_birds_landcover_probs_final" sheetId="1" r:id="rId1"/>
     <sheet name="Summary" sheetId="2" r:id="rId2"/>
     <sheet name="figure" sheetId="4" r:id="rId3"/>
     <sheet name="Landcover Classes" sheetId="3" r:id="rId4"/>
+    <sheet name="Home Range Sizes" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="51">
   <si>
     <t>number</t>
   </si>
@@ -148,6 +149,33 @@
   </si>
   <si>
     <t>Grassland</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>95% Area (m)</t>
+  </si>
+  <si>
+    <t>50% Area (m)</t>
+  </si>
+  <si>
+    <t>NOHA 626</t>
+  </si>
+  <si>
+    <t>NOHA 627</t>
+  </si>
+  <si>
+    <t>NOHA 628</t>
+  </si>
+  <si>
+    <t>NOHA 629</t>
+  </si>
+  <si>
+    <t>NOHA 630</t>
+  </si>
+  <si>
+    <t>NOHA 30.1</t>
   </si>
 </sst>
 </file>
@@ -223,8 +251,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="83">
+  <cellStyleXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -318,7 +352,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="83">
+  <cellStyles count="89">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -360,6 +394,9 @@
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -401,6 +438,9 @@
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -772,11 +812,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2114203992"/>
-        <c:axId val="-2114200088"/>
+        <c:axId val="2113117928"/>
+        <c:axId val="2113114792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2114203992"/>
+        <c:axId val="2113117928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -785,7 +825,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2114200088"/>
+        <c:crossAx val="2113114792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -793,7 +833,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2114200088"/>
+        <c:axId val="2113114792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -810,7 +850,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2114203992"/>
+        <c:crossAx val="2113117928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -959,11 +999,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2100564744"/>
-        <c:axId val="-2097051304"/>
+        <c:axId val="2072242616"/>
+        <c:axId val="2072239800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2100564744"/>
+        <c:axId val="2072242616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -972,7 +1012,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2097051304"/>
+        <c:crossAx val="2072239800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -980,7 +1020,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2097051304"/>
+        <c:axId val="2072239800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -997,7 +1037,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2100564744"/>
+        <c:crossAx val="2072242616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1401,1564 +1441,1747 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>2018</v>
+      </c>
+      <c r="B2" t="s">
         <v>33</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>8</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>0.83684109299999998</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>83.68</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>95</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>2018</v>
+      </c>
+      <c r="B3" t="s">
         <v>33</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>7.4933937000000006E-2</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>7.49</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>71</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>2018</v>
+      </c>
+      <c r="B4" t="s">
         <v>33</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>4.6837243000000001E-2</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>4.68</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>21</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>2018</v>
+      </c>
+      <c r="B5" t="s">
         <v>33</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>2.2568232000000001E-2</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>2.2599999999999998</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>2018</v>
+      </c>
+      <c r="B6" t="s">
         <v>33</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>9</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>1.4803267E-2</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1.48</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>11</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>13</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>2018</v>
+      </c>
+      <c r="B7" t="s">
         <v>33</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>10</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>1.661474E-3</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.17</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>23</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>15</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>2018</v>
+      </c>
+      <c r="B8" t="s">
         <v>33</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>3</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>8.99685E-4</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.09</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>81</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>16</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>2018</v>
+      </c>
+      <c r="B9" t="s">
         <v>33</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>15</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>6.3882499999999998E-4</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.06</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>41</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>18</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10" t="s">
         <v>33</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>5</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>6.1162100000000002E-4</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.06</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>82</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>20</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>2018</v>
+      </c>
+      <c r="B11" t="s">
         <v>33</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>7</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>2.01807E-4</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.02</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>90</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>21</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>2018</v>
+      </c>
+      <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>13</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>1.9784E-6</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>42</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>22</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>2018</v>
+      </c>
+      <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>11</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1">
         <v>8.1220000000000003E-7</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>24</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>23</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>2018</v>
+      </c>
+      <c r="B14" t="s">
         <v>33</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>12</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D14" s="1">
         <v>2.6300000000000001E-8</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>31</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>24</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>2018</v>
+      </c>
+      <c r="B15" t="s">
         <v>33</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>14</v>
       </c>
-      <c r="C15" s="1">
+      <c r="D15" s="1">
         <v>0</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>43</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>26</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>2018</v>
+      </c>
+      <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>6</v>
       </c>
-      <c r="C16" s="1">
+      <c r="D16" s="1">
         <v>0</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>52</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>27</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>2018</v>
+      </c>
+      <c r="B17" t="s">
         <v>34</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>8</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D17" s="1">
         <v>0.72244674523876196</v>
       </c>
-      <c r="D17" s="2">
-        <f t="shared" ref="D17:D61" si="0">C17*100</f>
+      <c r="E17" s="2">
+        <f t="shared" ref="E17:E61" si="0">D17*100</f>
         <v>72.244674523876199</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>95</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>2018</v>
+      </c>
+      <c r="B18" t="s">
         <v>34</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>1</v>
       </c>
-      <c r="C18" s="1">
+      <c r="D18" s="1">
         <v>0.16174248006289399</v>
       </c>
-      <c r="D18" s="2">
+      <c r="E18" s="2">
         <f t="shared" si="0"/>
         <v>16.1742480062894</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>71</v>
       </c>
-      <c r="F18" t="str">
-        <f>VLOOKUP(E18,'Landcover Classes'!A:B,2,FALSE)</f>
+      <c r="G18" t="str">
+        <f>VLOOKUP(F18,'Landcover Classes'!A:B,2,FALSE)</f>
         <v>Grassland/Herbaceous</v>
       </c>
-      <c r="G18" t="str">
-        <f>VLOOKUP(F18,'Landcover Classes'!B:C,2,FALSE)</f>
+      <c r="H18" t="str">
+        <f>VLOOKUP(G18,'Landcover Classes'!B:C,2,FALSE)</f>
         <v>Herbaceous</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>2018</v>
+      </c>
+      <c r="B19" t="s">
         <v>34</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>9</v>
       </c>
-      <c r="C19" s="1">
+      <c r="D19" s="1">
         <v>6.8964926522717407E-2</v>
       </c>
-      <c r="D19" s="2">
+      <c r="E19" s="2">
         <f t="shared" si="0"/>
         <v>6.8964926522717409</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>11</v>
       </c>
-      <c r="F19" t="str">
-        <f>VLOOKUP(E19,'Landcover Classes'!A:B,2,FALSE)</f>
+      <c r="G19" t="str">
+        <f>VLOOKUP(F19,'Landcover Classes'!A:B,2,FALSE)</f>
         <v>open water</v>
       </c>
-      <c r="G19" t="str">
-        <f>VLOOKUP(F19,'Landcover Classes'!B:C,2,FALSE)</f>
+      <c r="H19" t="str">
+        <f>VLOOKUP(G19,'Landcover Classes'!B:C,2,FALSE)</f>
         <v>Water</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>2018</v>
+      </c>
+      <c r="B20" t="s">
         <v>34</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>10</v>
       </c>
-      <c r="C20" s="1">
+      <c r="D20" s="1">
         <v>1.46727894682025E-2</v>
       </c>
-      <c r="D20" s="2">
+      <c r="E20" s="2">
         <f t="shared" si="0"/>
         <v>1.4672789468202501</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>23</v>
       </c>
-      <c r="F20" t="str">
-        <f>VLOOKUP(E20,'Landcover Classes'!A:B,2,FALSE)</f>
+      <c r="G20" t="str">
+        <f>VLOOKUP(F20,'Landcover Classes'!A:B,2,FALSE)</f>
         <v>developed, medium intensity</v>
       </c>
-      <c r="G20" t="str">
-        <f>VLOOKUP(F20,'Landcover Classes'!B:C,2,FALSE)</f>
+      <c r="H20" t="str">
+        <f>VLOOKUP(G20,'Landcover Classes'!B:C,2,FALSE)</f>
         <v>Developed</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>2018</v>
+      </c>
+      <c r="B21" t="s">
         <v>34</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>2</v>
       </c>
-      <c r="C21" s="1">
+      <c r="D21" s="1">
         <v>1.0986692692393199E-2</v>
       </c>
-      <c r="D21" s="2">
+      <c r="E21" s="2">
         <f t="shared" si="0"/>
         <v>1.0986692692393198</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>21</v>
       </c>
-      <c r="F21" t="str">
-        <f>VLOOKUP(E21,'Landcover Classes'!A:B,2,FALSE)</f>
+      <c r="G21" t="str">
+        <f>VLOOKUP(F21,'Landcover Classes'!A:B,2,FALSE)</f>
         <v>developed, open space</v>
       </c>
-      <c r="G21" t="str">
-        <f>VLOOKUP(F21,'Landcover Classes'!B:C,2,FALSE)</f>
+      <c r="H21" t="str">
+        <f>VLOOKUP(G21,'Landcover Classes'!B:C,2,FALSE)</f>
         <v>Developed</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>2018</v>
+      </c>
+      <c r="B22" t="s">
         <v>34</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>4</v>
       </c>
-      <c r="C22" s="1">
+      <c r="D22" s="1">
         <v>9.2319488865153301E-3</v>
       </c>
-      <c r="D22" s="2">
+      <c r="E22" s="2">
         <f t="shared" si="0"/>
         <v>0.92319488865153299</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>22</v>
       </c>
-      <c r="F22" t="str">
-        <f>VLOOKUP(E22,'Landcover Classes'!A:B,2,FALSE)</f>
+      <c r="G22" t="str">
+        <f>VLOOKUP(F22,'Landcover Classes'!A:B,2,FALSE)</f>
         <v>developed, low intensity</v>
       </c>
-      <c r="G22" t="str">
-        <f>VLOOKUP(F22,'Landcover Classes'!B:C,2,FALSE)</f>
+      <c r="H22" t="str">
+        <f>VLOOKUP(G22,'Landcover Classes'!B:C,2,FALSE)</f>
         <v>Developed</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="s">
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <v>2018</v>
+      </c>
+      <c r="B23" t="s">
         <v>34</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>5</v>
       </c>
-      <c r="C23" s="1">
+      <c r="D23" s="1">
         <v>5.9470965287669502E-3</v>
       </c>
-      <c r="D23" s="2">
+      <c r="E23" s="2">
         <f t="shared" si="0"/>
         <v>0.59470965287669497</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>82</v>
       </c>
-      <c r="F23" t="str">
-        <f>VLOOKUP(E23,'Landcover Classes'!A:B,2,FALSE)</f>
+      <c r="G23" t="str">
+        <f>VLOOKUP(F23,'Landcover Classes'!A:B,2,FALSE)</f>
         <v>Cultivated Crop</v>
       </c>
-      <c r="G23" t="str">
-        <f>VLOOKUP(F23,'Landcover Classes'!B:C,2,FALSE)</f>
+      <c r="H23" t="str">
+        <f>VLOOKUP(G23,'Landcover Classes'!B:C,2,FALSE)</f>
         <v>Planted/Cultivated</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <v>2018</v>
+      </c>
+      <c r="B24" t="s">
         <v>34</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>11</v>
       </c>
-      <c r="C24" s="1">
+      <c r="D24" s="1">
         <v>2.8141785778061802E-3</v>
       </c>
-      <c r="D24" s="2">
+      <c r="E24" s="2">
         <f t="shared" si="0"/>
         <v>0.28141785778061801</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>24</v>
       </c>
-      <c r="F24" t="str">
-        <f>VLOOKUP(E24,'Landcover Classes'!A:B,2,FALSE)</f>
+      <c r="G24" t="str">
+        <f>VLOOKUP(F24,'Landcover Classes'!A:B,2,FALSE)</f>
         <v>developed, high intensity</v>
       </c>
-      <c r="G24" t="str">
-        <f>VLOOKUP(F24,'Landcover Classes'!B:C,2,FALSE)</f>
+      <c r="H24" t="str">
+        <f>VLOOKUP(G24,'Landcover Classes'!B:C,2,FALSE)</f>
         <v>Developed</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" t="s">
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>2018</v>
+      </c>
+      <c r="B25" t="s">
         <v>34</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>15</v>
       </c>
-      <c r="C25" s="1">
+      <c r="D25" s="1">
         <v>2.15735910069734E-3</v>
       </c>
-      <c r="D25" s="2">
+      <c r="E25" s="2">
         <f t="shared" si="0"/>
         <v>0.215735910069734</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>41</v>
       </c>
-      <c r="F25" t="str">
-        <f>VLOOKUP(E25,'Landcover Classes'!A:B,2,FALSE)</f>
+      <c r="G25" t="str">
+        <f>VLOOKUP(F25,'Landcover Classes'!A:B,2,FALSE)</f>
         <v>Deciduous Forest</v>
       </c>
-      <c r="G25" t="str">
-        <f>VLOOKUP(F25,'Landcover Classes'!B:C,2,FALSE)</f>
+      <c r="H25" t="str">
+        <f>VLOOKUP(G25,'Landcover Classes'!B:C,2,FALSE)</f>
         <v>Forest</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="s">
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <v>2018</v>
+      </c>
+      <c r="B26" t="s">
         <v>34</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>7</v>
       </c>
-      <c r="C26" s="1">
+      <c r="D26" s="1">
         <v>9.6533787822672705E-4</v>
       </c>
-      <c r="D26" s="2">
+      <c r="E26" s="2">
         <f t="shared" si="0"/>
         <v>9.6533787822672704E-2</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>90</v>
       </c>
-      <c r="F26" t="str">
-        <f>VLOOKUP(E26,'Landcover Classes'!A:B,2,FALSE)</f>
+      <c r="G26" t="str">
+        <f>VLOOKUP(F26,'Landcover Classes'!A:B,2,FALSE)</f>
         <v>Woody Wetlands</v>
       </c>
-      <c r="G26" t="str">
-        <f>VLOOKUP(F26,'Landcover Classes'!B:C,2,FALSE)</f>
+      <c r="H26" t="str">
+        <f>VLOOKUP(G26,'Landcover Classes'!B:C,2,FALSE)</f>
         <v>Wetlands</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="s">
+    <row r="27" spans="1:9">
+      <c r="A27">
+        <v>2018</v>
+      </c>
+      <c r="B27" t="s">
         <v>34</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>6</v>
       </c>
-      <c r="C27" s="1">
+      <c r="D27" s="1">
         <v>6.4742776269226197E-5</v>
       </c>
-      <c r="D27" s="2">
+      <c r="E27" s="2">
         <f t="shared" si="0"/>
         <v>6.4742776269226194E-3</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>52</v>
       </c>
-      <c r="F27" t="str">
-        <f>VLOOKUP(E27,'Landcover Classes'!A:B,2,FALSE)</f>
+      <c r="G27" t="str">
+        <f>VLOOKUP(F27,'Landcover Classes'!A:B,2,FALSE)</f>
         <v>Shrub/Scrub</v>
       </c>
-      <c r="G27" t="str">
-        <f>VLOOKUP(F27,'Landcover Classes'!B:C,2,FALSE)</f>
+      <c r="H27" t="str">
+        <f>VLOOKUP(G27,'Landcover Classes'!B:C,2,FALSE)</f>
         <v>Shrubland</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="s">
+    <row r="28" spans="1:9">
+      <c r="A28">
+        <v>2018</v>
+      </c>
+      <c r="B28" t="s">
         <v>34</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>12</v>
       </c>
-      <c r="C28" s="1">
+      <c r="D28" s="1">
         <v>4.2820848617852098E-6</v>
       </c>
-      <c r="D28" s="2">
+      <c r="E28" s="2">
         <f t="shared" si="0"/>
         <v>4.2820848617852096E-4</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>31</v>
       </c>
-      <c r="F28" t="str">
-        <f>VLOOKUP(E28,'Landcover Classes'!A:B,2,FALSE)</f>
+      <c r="G28" t="str">
+        <f>VLOOKUP(F28,'Landcover Classes'!A:B,2,FALSE)</f>
         <v>Barren Land (Rock/Sand/Clay)</v>
       </c>
-      <c r="G28" t="str">
-        <f>VLOOKUP(F28,'Landcover Classes'!B:C,2,FALSE)</f>
+      <c r="H28" t="str">
+        <f>VLOOKUP(G28,'Landcover Classes'!B:C,2,FALSE)</f>
         <v>Barren</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29" t="s">
+    <row r="29" spans="1:9">
+      <c r="A29">
+        <v>2018</v>
+      </c>
+      <c r="B29" t="s">
         <v>34</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>3</v>
       </c>
-      <c r="C29" s="1">
+      <c r="D29" s="1">
         <v>1.36924355860983E-6</v>
       </c>
-      <c r="D29" s="2">
+      <c r="E29" s="2">
         <f t="shared" si="0"/>
         <v>1.3692435586098301E-4</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>81</v>
       </c>
-      <c r="F29" t="str">
-        <f>VLOOKUP(E29,'Landcover Classes'!A:B,2,FALSE)</f>
+      <c r="G29" t="str">
+        <f>VLOOKUP(F29,'Landcover Classes'!A:B,2,FALSE)</f>
         <v>Pasture/Hay</v>
       </c>
-      <c r="G29" t="str">
-        <f>VLOOKUP(F29,'Landcover Classes'!B:C,2,FALSE)</f>
+      <c r="H29" t="str">
+        <f>VLOOKUP(G29,'Landcover Classes'!B:C,2,FALSE)</f>
         <v>Planted/Cultivated</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" t="s">
+    <row r="30" spans="1:9">
+      <c r="A30">
+        <v>2018</v>
+      </c>
+      <c r="B30" t="s">
         <v>34</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>14</v>
       </c>
-      <c r="C30" s="1">
+      <c r="D30" s="1">
         <v>4.9616784340738502E-8</v>
       </c>
-      <c r="D30" s="2">
+      <c r="E30" s="2">
         <f t="shared" si="0"/>
         <v>4.96167843407385E-6</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>43</v>
       </c>
-      <c r="F30" t="str">
-        <f>VLOOKUP(E30,'Landcover Classes'!A:B,2,FALSE)</f>
+      <c r="G30" t="str">
+        <f>VLOOKUP(F30,'Landcover Classes'!A:B,2,FALSE)</f>
         <v>Mixed Forest</v>
       </c>
-      <c r="G30" t="str">
-        <f>VLOOKUP(F30,'Landcover Classes'!B:C,2,FALSE)</f>
+      <c r="H30" t="str">
+        <f>VLOOKUP(G30,'Landcover Classes'!B:C,2,FALSE)</f>
         <v>Forest</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
-      <c r="A31" t="s">
+    <row r="31" spans="1:9">
+      <c r="A31">
+        <v>2018</v>
+      </c>
+      <c r="B31" t="s">
         <v>34</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>13</v>
       </c>
-      <c r="C31" s="1">
+      <c r="D31" s="1">
         <v>1.3215435496350399E-9</v>
       </c>
-      <c r="D31" s="2">
+      <c r="E31" s="2">
         <f t="shared" si="0"/>
         <v>1.3215435496350399E-7</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>42</v>
       </c>
-      <c r="F31" t="str">
-        <f>VLOOKUP(E31,'Landcover Classes'!A:B,2,FALSE)</f>
+      <c r="G31" t="str">
+        <f>VLOOKUP(F31,'Landcover Classes'!A:B,2,FALSE)</f>
         <v>Evergreen Forest</v>
       </c>
-      <c r="G31" t="str">
-        <f>VLOOKUP(F31,'Landcover Classes'!B:C,2,FALSE)</f>
+      <c r="H31" t="str">
+        <f>VLOOKUP(G31,'Landcover Classes'!B:C,2,FALSE)</f>
         <v>Forest</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" t="s">
+    <row r="32" spans="1:9">
+      <c r="A32">
+        <v>2018</v>
+      </c>
+      <c r="B32" t="s">
         <v>35</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>8</v>
       </c>
-      <c r="C32" s="1">
+      <c r="D32" s="1">
         <v>0.733064181674418</v>
       </c>
-      <c r="D32" s="2">
+      <c r="E32" s="2">
         <f t="shared" si="0"/>
         <v>73.306418167441805</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>95</v>
       </c>
-      <c r="F32" t="str">
-        <f>VLOOKUP(E32,'Landcover Classes'!A:B,2,FALSE)</f>
+      <c r="G32" t="str">
+        <f>VLOOKUP(F32,'Landcover Classes'!A:B,2,FALSE)</f>
         <v>Emergent Herbaceous Wetlands</v>
       </c>
-      <c r="G32" t="str">
-        <f>VLOOKUP(F32,'Landcover Classes'!B:C,2,FALSE)</f>
+      <c r="H32" t="str">
+        <f>VLOOKUP(G32,'Landcover Classes'!B:C,2,FALSE)</f>
         <v>Wetlands</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" t="s">
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>2018</v>
+      </c>
+      <c r="B33" t="s">
         <v>35</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>1</v>
       </c>
-      <c r="C33" s="1">
+      <c r="D33" s="1">
         <v>0.204382126880157</v>
       </c>
-      <c r="D33" s="2">
+      <c r="E33" s="2">
         <f t="shared" si="0"/>
         <v>20.4382126880157</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>71</v>
       </c>
-      <c r="F33" t="str">
-        <f>VLOOKUP(E33,'Landcover Classes'!A:B,2,FALSE)</f>
+      <c r="G33" t="str">
+        <f>VLOOKUP(F33,'Landcover Classes'!A:B,2,FALSE)</f>
         <v>Grassland/Herbaceous</v>
       </c>
-      <c r="G33" t="str">
-        <f>VLOOKUP(F33,'Landcover Classes'!B:C,2,FALSE)</f>
+      <c r="H33" t="str">
+        <f>VLOOKUP(G33,'Landcover Classes'!B:C,2,FALSE)</f>
         <v>Herbaceous</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" t="s">
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>2018</v>
+      </c>
+      <c r="B34" t="s">
         <v>35</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>9</v>
       </c>
-      <c r="C34" s="1">
+      <c r="D34" s="1">
         <v>2.3370549281081399E-2</v>
       </c>
-      <c r="D34" s="2">
+      <c r="E34" s="2">
         <f t="shared" si="0"/>
         <v>2.3370549281081399</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>11</v>
       </c>
-      <c r="F34" t="str">
-        <f>VLOOKUP(E34,'Landcover Classes'!A:B,2,FALSE)</f>
+      <c r="G34" t="str">
+        <f>VLOOKUP(F34,'Landcover Classes'!A:B,2,FALSE)</f>
         <v>open water</v>
       </c>
-      <c r="G34" t="str">
-        <f>VLOOKUP(F34,'Landcover Classes'!B:C,2,FALSE)</f>
+      <c r="H34" t="str">
+        <f>VLOOKUP(G34,'Landcover Classes'!B:C,2,FALSE)</f>
         <v>Water</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
-      <c r="A35" t="s">
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>2018</v>
+      </c>
+      <c r="B35" t="s">
         <v>35</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>15</v>
       </c>
-      <c r="C35" s="1">
+      <c r="D35" s="1">
         <v>2.31995985498985E-2</v>
       </c>
-      <c r="D35" s="2">
+      <c r="E35" s="2">
         <f t="shared" si="0"/>
         <v>2.3199598549898499</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>41</v>
       </c>
-      <c r="F35" t="str">
-        <f>VLOOKUP(E35,'Landcover Classes'!A:B,2,FALSE)</f>
+      <c r="G35" t="str">
+        <f>VLOOKUP(F35,'Landcover Classes'!A:B,2,FALSE)</f>
         <v>Deciduous Forest</v>
       </c>
-      <c r="G35" t="str">
-        <f>VLOOKUP(F35,'Landcover Classes'!B:C,2,FALSE)</f>
+      <c r="H35" t="str">
+        <f>VLOOKUP(G35,'Landcover Classes'!B:C,2,FALSE)</f>
         <v>Forest</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" t="s">
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>2018</v>
+      </c>
+      <c r="B36" t="s">
         <v>35</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>2</v>
       </c>
-      <c r="C36" s="1">
+      <c r="D36" s="1">
         <v>1.15402664705228E-2</v>
       </c>
-      <c r="D36" s="2">
+      <c r="E36" s="2">
         <f t="shared" si="0"/>
         <v>1.15402664705228</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>21</v>
       </c>
-      <c r="F36" t="str">
-        <f>VLOOKUP(E36,'Landcover Classes'!A:B,2,FALSE)</f>
+      <c r="G36" t="str">
+        <f>VLOOKUP(F36,'Landcover Classes'!A:B,2,FALSE)</f>
         <v>developed, open space</v>
       </c>
-      <c r="G36" t="str">
-        <f>VLOOKUP(F36,'Landcover Classes'!B:C,2,FALSE)</f>
+      <c r="H36" t="str">
+        <f>VLOOKUP(G36,'Landcover Classes'!B:C,2,FALSE)</f>
         <v>Developed</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" t="s">
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <v>2018</v>
+      </c>
+      <c r="B37" t="s">
         <v>35</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>7</v>
       </c>
-      <c r="C37" s="1">
+      <c r="D37" s="1">
         <v>2.1931333227029701E-3</v>
       </c>
-      <c r="D37" s="2">
+      <c r="E37" s="2">
         <f t="shared" si="0"/>
         <v>0.21931333227029701</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>90</v>
       </c>
-      <c r="F37" t="str">
-        <f>VLOOKUP(E37,'Landcover Classes'!A:B,2,FALSE)</f>
+      <c r="G37" t="str">
+        <f>VLOOKUP(F37,'Landcover Classes'!A:B,2,FALSE)</f>
         <v>Woody Wetlands</v>
       </c>
-      <c r="G37" t="str">
-        <f>VLOOKUP(F37,'Landcover Classes'!B:C,2,FALSE)</f>
+      <c r="H37" t="str">
+        <f>VLOOKUP(G37,'Landcover Classes'!B:C,2,FALSE)</f>
         <v>Wetlands</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" t="s">
+    <row r="38" spans="1:8">
+      <c r="A38">
+        <v>2018</v>
+      </c>
+      <c r="B38" t="s">
         <v>35</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>12</v>
       </c>
-      <c r="C38" s="1">
+      <c r="D38" s="1">
         <v>8.7007796640229599E-4</v>
       </c>
-      <c r="D38" s="2">
+      <c r="E38" s="2">
         <f t="shared" si="0"/>
         <v>8.7007796640229604E-2</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>31</v>
       </c>
-      <c r="F38" t="str">
-        <f>VLOOKUP(E38,'Landcover Classes'!A:B,2,FALSE)</f>
+      <c r="G38" t="str">
+        <f>VLOOKUP(F38,'Landcover Classes'!A:B,2,FALSE)</f>
         <v>Barren Land (Rock/Sand/Clay)</v>
       </c>
-      <c r="G38" t="str">
-        <f>VLOOKUP(F38,'Landcover Classes'!B:C,2,FALSE)</f>
+      <c r="H38" t="str">
+        <f>VLOOKUP(G38,'Landcover Classes'!B:C,2,FALSE)</f>
         <v>Barren</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
-      <c r="A39" t="s">
+    <row r="39" spans="1:8">
+      <c r="A39">
+        <v>2018</v>
+      </c>
+      <c r="B39" t="s">
         <v>35</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>3</v>
       </c>
-      <c r="C39" s="1">
+      <c r="D39" s="1">
         <v>5.1403843615867903E-4</v>
       </c>
-      <c r="D39" s="2">
+      <c r="E39" s="2">
         <f t="shared" si="0"/>
         <v>5.1403843615867903E-2</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>81</v>
       </c>
-      <c r="F39" t="str">
-        <f>VLOOKUP(E39,'Landcover Classes'!A:B,2,FALSE)</f>
+      <c r="G39" t="str">
+        <f>VLOOKUP(F39,'Landcover Classes'!A:B,2,FALSE)</f>
         <v>Pasture/Hay</v>
       </c>
-      <c r="G39" t="str">
-        <f>VLOOKUP(F39,'Landcover Classes'!B:C,2,FALSE)</f>
+      <c r="H39" t="str">
+        <f>VLOOKUP(G39,'Landcover Classes'!B:C,2,FALSE)</f>
         <v>Planted/Cultivated</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
-      <c r="A40" t="s">
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <v>2018</v>
+      </c>
+      <c r="B40" t="s">
         <v>35</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>5</v>
       </c>
-      <c r="C40" s="1">
+      <c r="D40" s="1">
         <v>4.4252027150130599E-4</v>
       </c>
-      <c r="D40" s="2">
+      <c r="E40" s="2">
         <f t="shared" si="0"/>
         <v>4.4252027150130602E-2</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>82</v>
       </c>
-      <c r="F40" t="str">
-        <f>VLOOKUP(E40,'Landcover Classes'!A:B,2,FALSE)</f>
+      <c r="G40" t="str">
+        <f>VLOOKUP(F40,'Landcover Classes'!A:B,2,FALSE)</f>
         <v>Cultivated Crop</v>
       </c>
-      <c r="G40" t="str">
-        <f>VLOOKUP(F40,'Landcover Classes'!B:C,2,FALSE)</f>
+      <c r="H40" t="str">
+        <f>VLOOKUP(G40,'Landcover Classes'!B:C,2,FALSE)</f>
         <v>Planted/Cultivated</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
-      <c r="A41" t="s">
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <v>2018</v>
+      </c>
+      <c r="B41" t="s">
         <v>35</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>10</v>
       </c>
-      <c r="C41" s="1">
+      <c r="D41" s="1">
         <v>2.3513641979607799E-4</v>
       </c>
-      <c r="D41" s="2">
+      <c r="E41" s="2">
         <f t="shared" si="0"/>
         <v>2.3513641979607799E-2</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>23</v>
       </c>
-      <c r="F41" t="str">
-        <f>VLOOKUP(E41,'Landcover Classes'!A:B,2,FALSE)</f>
+      <c r="G41" t="str">
+        <f>VLOOKUP(F41,'Landcover Classes'!A:B,2,FALSE)</f>
         <v>developed, medium intensity</v>
       </c>
-      <c r="G41" t="str">
-        <f>VLOOKUP(F41,'Landcover Classes'!B:C,2,FALSE)</f>
+      <c r="H41" t="str">
+        <f>VLOOKUP(G41,'Landcover Classes'!B:C,2,FALSE)</f>
         <v>Developed</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42" t="s">
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <v>2018</v>
+      </c>
+      <c r="B42" t="s">
         <v>35</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>4</v>
       </c>
-      <c r="C42" s="1">
+      <c r="D42" s="1">
         <v>1.3608865802263999E-4</v>
       </c>
-      <c r="D42" s="2">
+      <c r="E42" s="2">
         <f t="shared" si="0"/>
         <v>1.3608865802264E-2</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>22</v>
       </c>
-      <c r="F42" t="str">
-        <f>VLOOKUP(E42,'Landcover Classes'!A:B,2,FALSE)</f>
+      <c r="G42" t="str">
+        <f>VLOOKUP(F42,'Landcover Classes'!A:B,2,FALSE)</f>
         <v>developed, low intensity</v>
       </c>
-      <c r="G42" t="str">
-        <f>VLOOKUP(F42,'Landcover Classes'!B:C,2,FALSE)</f>
+      <c r="H42" t="str">
+        <f>VLOOKUP(G42,'Landcover Classes'!B:C,2,FALSE)</f>
         <v>Developed</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
-      <c r="A43" t="s">
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <v>2018</v>
+      </c>
+      <c r="B43" t="s">
         <v>35</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>6</v>
       </c>
-      <c r="C43" s="1">
+      <c r="D43" s="1">
         <v>3.5695080637584801E-5</v>
       </c>
-      <c r="D43" s="2">
+      <c r="E43" s="2">
         <f t="shared" si="0"/>
         <v>3.5695080637584801E-3</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>52</v>
       </c>
-      <c r="F43" t="str">
-        <f>VLOOKUP(E43,'Landcover Classes'!A:B,2,FALSE)</f>
+      <c r="G43" t="str">
+        <f>VLOOKUP(F43,'Landcover Classes'!A:B,2,FALSE)</f>
         <v>Shrub/Scrub</v>
       </c>
-      <c r="G43" t="str">
-        <f>VLOOKUP(F43,'Landcover Classes'!B:C,2,FALSE)</f>
+      <c r="H43" t="str">
+        <f>VLOOKUP(G43,'Landcover Classes'!B:C,2,FALSE)</f>
         <v>Shrubland</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
-      <c r="A44" t="s">
+    <row r="44" spans="1:8">
+      <c r="A44">
+        <v>2018</v>
+      </c>
+      <c r="B44" t="s">
         <v>35</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>11</v>
       </c>
-      <c r="C44" s="1">
+      <c r="D44" s="1">
         <v>1.4625066009155E-5</v>
       </c>
-      <c r="D44" s="2">
+      <c r="E44" s="2">
         <f t="shared" si="0"/>
         <v>1.4625066009155E-3</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>24</v>
       </c>
-      <c r="F44" t="str">
-        <f>VLOOKUP(E44,'Landcover Classes'!A:B,2,FALSE)</f>
+      <c r="G44" t="str">
+        <f>VLOOKUP(F44,'Landcover Classes'!A:B,2,FALSE)</f>
         <v>developed, high intensity</v>
       </c>
-      <c r="G44" t="str">
-        <f>VLOOKUP(F44,'Landcover Classes'!B:C,2,FALSE)</f>
+      <c r="H44" t="str">
+        <f>VLOOKUP(G44,'Landcover Classes'!B:C,2,FALSE)</f>
         <v>Developed</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
-      <c r="A45" t="s">
+    <row r="45" spans="1:8">
+      <c r="A45">
+        <v>2018</v>
+      </c>
+      <c r="B45" t="s">
         <v>35</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>13</v>
       </c>
-      <c r="C45" s="1">
+      <c r="D45" s="1">
         <v>1.9619226914030899E-6</v>
       </c>
-      <c r="D45" s="2">
+      <c r="E45" s="2">
         <f t="shared" si="0"/>
         <v>1.9619226914030898E-4</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>42</v>
       </c>
-      <c r="F45" t="str">
-        <f>VLOOKUP(E45,'Landcover Classes'!A:B,2,FALSE)</f>
+      <c r="G45" t="str">
+        <f>VLOOKUP(F45,'Landcover Classes'!A:B,2,FALSE)</f>
         <v>Evergreen Forest</v>
       </c>
-      <c r="G45" t="str">
-        <f>VLOOKUP(F45,'Landcover Classes'!B:C,2,FALSE)</f>
+      <c r="H45" t="str">
+        <f>VLOOKUP(G45,'Landcover Classes'!B:C,2,FALSE)</f>
         <v>Forest</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
-      <c r="A46" t="s">
+    <row r="46" spans="1:8">
+      <c r="A46">
+        <v>2018</v>
+      </c>
+      <c r="B46" t="s">
         <v>35</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>14</v>
       </c>
-      <c r="C46" s="1">
+      <c r="D46" s="1">
         <v>0</v>
       </c>
-      <c r="D46" s="2">
+      <c r="E46" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>43</v>
       </c>
-      <c r="F46" t="str">
-        <f>VLOOKUP(E46,'Landcover Classes'!A:B,2,FALSE)</f>
+      <c r="G46" t="str">
+        <f>VLOOKUP(F46,'Landcover Classes'!A:B,2,FALSE)</f>
         <v>Mixed Forest</v>
       </c>
-      <c r="G46" t="str">
-        <f>VLOOKUP(F46,'Landcover Classes'!B:C,2,FALSE)</f>
+      <c r="H46" t="str">
+        <f>VLOOKUP(G46,'Landcover Classes'!B:C,2,FALSE)</f>
         <v>Forest</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
-      <c r="A47" t="s">
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>2018</v>
+      </c>
+      <c r="B47" t="s">
         <v>36</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>8</v>
       </c>
-      <c r="C47" s="1">
+      <c r="D47" s="1">
         <v>0.67207208292571297</v>
       </c>
-      <c r="D47" s="2">
+      <c r="E47" s="2">
         <f t="shared" si="0"/>
         <v>67.207208292571295</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>95</v>
       </c>
-      <c r="F47" t="str">
-        <f>VLOOKUP(E47,'Landcover Classes'!A:B,2,FALSE)</f>
+      <c r="G47" t="str">
+        <f>VLOOKUP(F47,'Landcover Classes'!A:B,2,FALSE)</f>
         <v>Emergent Herbaceous Wetlands</v>
       </c>
-      <c r="G47" t="str">
-        <f>VLOOKUP(F47,'Landcover Classes'!B:C,2,FALSE)</f>
+      <c r="H47" t="str">
+        <f>VLOOKUP(G47,'Landcover Classes'!B:C,2,FALSE)</f>
         <v>Wetlands</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
-      <c r="A48" t="s">
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <v>2018</v>
+      </c>
+      <c r="B48" t="s">
         <v>36</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>1</v>
       </c>
-      <c r="C48" s="1">
+      <c r="D48" s="1">
         <v>0.13362699430094199</v>
       </c>
-      <c r="D48" s="2">
+      <c r="E48" s="2">
         <f t="shared" si="0"/>
         <v>13.362699430094199</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>71</v>
       </c>
-      <c r="F48" t="str">
-        <f>VLOOKUP(E48,'Landcover Classes'!A:B,2,FALSE)</f>
+      <c r="G48" t="str">
+        <f>VLOOKUP(F48,'Landcover Classes'!A:B,2,FALSE)</f>
         <v>Grassland/Herbaceous</v>
       </c>
-      <c r="G48" t="str">
-        <f>VLOOKUP(F48,'Landcover Classes'!B:C,2,FALSE)</f>
+      <c r="H48" t="str">
+        <f>VLOOKUP(G48,'Landcover Classes'!B:C,2,FALSE)</f>
         <v>Herbaceous</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
-      <c r="A49" t="s">
+    <row r="49" spans="1:8">
+      <c r="A49">
+        <v>2018</v>
+      </c>
+      <c r="B49" t="s">
         <v>36</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>9</v>
       </c>
-      <c r="C49" s="1">
+      <c r="D49" s="1">
         <v>9.8163765339154704E-2</v>
       </c>
-      <c r="D49" s="2">
+      <c r="E49" s="2">
         <f t="shared" si="0"/>
         <v>9.81637653391547</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>11</v>
       </c>
-      <c r="F49" t="str">
-        <f>VLOOKUP(E49,'Landcover Classes'!A:B,2,FALSE)</f>
+      <c r="G49" t="str">
+        <f>VLOOKUP(F49,'Landcover Classes'!A:B,2,FALSE)</f>
         <v>open water</v>
       </c>
-      <c r="G49" t="str">
-        <f>VLOOKUP(F49,'Landcover Classes'!B:C,2,FALSE)</f>
+      <c r="H49" t="str">
+        <f>VLOOKUP(G49,'Landcover Classes'!B:C,2,FALSE)</f>
         <v>Water</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
-      <c r="A50" t="s">
+    <row r="50" spans="1:8">
+      <c r="A50">
+        <v>2018</v>
+      </c>
+      <c r="B50" t="s">
         <v>36</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>15</v>
       </c>
-      <c r="C50" s="1">
+      <c r="D50" s="1">
         <v>7.1143003186189505E-2</v>
       </c>
-      <c r="D50" s="2">
+      <c r="E50" s="2">
         <f t="shared" si="0"/>
         <v>7.1143003186189508</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>41</v>
       </c>
-      <c r="F50" t="str">
-        <f>VLOOKUP(E50,'Landcover Classes'!A:B,2,FALSE)</f>
+      <c r="G50" t="str">
+        <f>VLOOKUP(F50,'Landcover Classes'!A:B,2,FALSE)</f>
         <v>Deciduous Forest</v>
       </c>
-      <c r="G50" t="str">
-        <f>VLOOKUP(F50,'Landcover Classes'!B:C,2,FALSE)</f>
+      <c r="H50" t="str">
+        <f>VLOOKUP(G50,'Landcover Classes'!B:C,2,FALSE)</f>
         <v>Forest</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
-      <c r="A51" t="s">
+    <row r="51" spans="1:8">
+      <c r="A51">
+        <v>2018</v>
+      </c>
+      <c r="B51" t="s">
         <v>36</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>2</v>
       </c>
-      <c r="C51" s="1">
+      <c r="D51" s="1">
         <v>2.4435286274402099E-2</v>
       </c>
-      <c r="D51" s="2">
+      <c r="E51" s="2">
         <f t="shared" si="0"/>
         <v>2.4435286274402097</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>21</v>
       </c>
-      <c r="F51" t="str">
-        <f>VLOOKUP(E51,'Landcover Classes'!A:B,2,FALSE)</f>
+      <c r="G51" t="str">
+        <f>VLOOKUP(F51,'Landcover Classes'!A:B,2,FALSE)</f>
         <v>developed, open space</v>
       </c>
-      <c r="G51" t="str">
-        <f>VLOOKUP(F51,'Landcover Classes'!B:C,2,FALSE)</f>
+      <c r="H51" t="str">
+        <f>VLOOKUP(G51,'Landcover Classes'!B:C,2,FALSE)</f>
         <v>Developed</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
-      <c r="A52" t="s">
+    <row r="52" spans="1:8">
+      <c r="A52">
+        <v>2018</v>
+      </c>
+      <c r="B52" t="s">
         <v>36</v>
       </c>
-      <c r="B52">
+      <c r="C52">
         <v>3</v>
       </c>
-      <c r="C52" s="1">
+      <c r="D52" s="1">
         <v>4.7748993973115698E-4</v>
       </c>
-      <c r="D52" s="2">
+      <c r="E52" s="2">
         <f t="shared" si="0"/>
         <v>4.7748993973115696E-2</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>81</v>
       </c>
-      <c r="F52" t="str">
-        <f>VLOOKUP(E52,'Landcover Classes'!A:B,2,FALSE)</f>
+      <c r="G52" t="str">
+        <f>VLOOKUP(F52,'Landcover Classes'!A:B,2,FALSE)</f>
         <v>Pasture/Hay</v>
       </c>
-      <c r="G52" t="str">
-        <f>VLOOKUP(F52,'Landcover Classes'!B:C,2,FALSE)</f>
+      <c r="H52" t="str">
+        <f>VLOOKUP(G52,'Landcover Classes'!B:C,2,FALSE)</f>
         <v>Planted/Cultivated</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
-      <c r="A53" t="s">
+    <row r="53" spans="1:8">
+      <c r="A53">
+        <v>2018</v>
+      </c>
+      <c r="B53" t="s">
         <v>36</v>
       </c>
-      <c r="B53">
+      <c r="C53">
         <v>4</v>
       </c>
-      <c r="C53" s="1">
+      <c r="D53" s="1">
         <v>5.1241646149975498E-5</v>
       </c>
-      <c r="D53" s="2">
+      <c r="E53" s="2">
         <f t="shared" si="0"/>
         <v>5.1241646149975499E-3</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>22</v>
       </c>
-      <c r="F53" t="str">
-        <f>VLOOKUP(E53,'Landcover Classes'!A:B,2,FALSE)</f>
+      <c r="G53" t="str">
+        <f>VLOOKUP(F53,'Landcover Classes'!A:B,2,FALSE)</f>
         <v>developed, low intensity</v>
       </c>
-      <c r="G53" t="str">
-        <f>VLOOKUP(F53,'Landcover Classes'!B:C,2,FALSE)</f>
+      <c r="H53" t="str">
+        <f>VLOOKUP(G53,'Landcover Classes'!B:C,2,FALSE)</f>
         <v>Developed</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
-      <c r="A54" t="s">
+    <row r="54" spans="1:8">
+      <c r="A54">
+        <v>2018</v>
+      </c>
+      <c r="B54" t="s">
         <v>36</v>
       </c>
-      <c r="B54">
+      <c r="C54">
         <v>7</v>
       </c>
-      <c r="C54" s="1">
+      <c r="D54" s="1">
         <v>1.4344505104629399E-5</v>
       </c>
-      <c r="D54" s="2">
+      <c r="E54" s="2">
         <f t="shared" si="0"/>
         <v>1.43445051046294E-3</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>90</v>
       </c>
-      <c r="F54" t="str">
-        <f>VLOOKUP(E54,'Landcover Classes'!A:B,2,FALSE)</f>
+      <c r="G54" t="str">
+        <f>VLOOKUP(F54,'Landcover Classes'!A:B,2,FALSE)</f>
         <v>Woody Wetlands</v>
       </c>
-      <c r="G54" t="str">
-        <f>VLOOKUP(F54,'Landcover Classes'!B:C,2,FALSE)</f>
+      <c r="H54" t="str">
+        <f>VLOOKUP(G54,'Landcover Classes'!B:C,2,FALSE)</f>
         <v>Wetlands</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
-      <c r="A55" t="s">
+    <row r="55" spans="1:8">
+      <c r="A55">
+        <v>2018</v>
+      </c>
+      <c r="B55" t="s">
         <v>36</v>
       </c>
-      <c r="B55">
+      <c r="C55">
         <v>5</v>
       </c>
-      <c r="C55" s="1">
+      <c r="D55" s="1">
         <v>1.2201418062593299E-5</v>
       </c>
-      <c r="D55" s="2">
+      <c r="E55" s="2">
         <f t="shared" si="0"/>
         <v>1.22014180625933E-3</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>82</v>
       </c>
-      <c r="F55" t="str">
-        <f>VLOOKUP(E55,'Landcover Classes'!A:B,2,FALSE)</f>
+      <c r="G55" t="str">
+        <f>VLOOKUP(F55,'Landcover Classes'!A:B,2,FALSE)</f>
         <v>Cultivated Crop</v>
       </c>
-      <c r="G55" t="str">
-        <f>VLOOKUP(F55,'Landcover Classes'!B:C,2,FALSE)</f>
+      <c r="H55" t="str">
+        <f>VLOOKUP(G55,'Landcover Classes'!B:C,2,FALSE)</f>
         <v>Planted/Cultivated</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
-      <c r="A56" t="s">
+    <row r="56" spans="1:8">
+      <c r="A56">
+        <v>2018</v>
+      </c>
+      <c r="B56" t="s">
         <v>36</v>
       </c>
-      <c r="B56">
+      <c r="C56">
         <v>10</v>
       </c>
-      <c r="C56" s="1">
+      <c r="D56" s="1">
         <v>2.6654819112824599E-6</v>
       </c>
-      <c r="D56" s="2">
+      <c r="E56" s="2">
         <f t="shared" si="0"/>
         <v>2.6654819112824601E-4</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>23</v>
       </c>
-      <c r="F56" t="str">
-        <f>VLOOKUP(E56,'Landcover Classes'!A:B,2,FALSE)</f>
+      <c r="G56" t="str">
+        <f>VLOOKUP(F56,'Landcover Classes'!A:B,2,FALSE)</f>
         <v>developed, medium intensity</v>
       </c>
-      <c r="G56" t="str">
-        <f>VLOOKUP(F56,'Landcover Classes'!B:C,2,FALSE)</f>
+      <c r="H56" t="str">
+        <f>VLOOKUP(G56,'Landcover Classes'!B:C,2,FALSE)</f>
         <v>Developed</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
-      <c r="A57" t="s">
+    <row r="57" spans="1:8">
+      <c r="A57">
+        <v>2018</v>
+      </c>
+      <c r="B57" t="s">
         <v>36</v>
       </c>
-      <c r="B57">
+      <c r="C57">
         <v>13</v>
       </c>
-      <c r="C57" s="1">
+      <c r="D57" s="1">
         <v>7.5211649624323396E-7</v>
       </c>
-      <c r="D57" s="2">
+      <c r="E57" s="2">
         <f t="shared" si="0"/>
         <v>7.5211649624323392E-5</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>42</v>
       </c>
-      <c r="F57" t="str">
-        <f>VLOOKUP(E57,'Landcover Classes'!A:B,2,FALSE)</f>
+      <c r="G57" t="str">
+        <f>VLOOKUP(F57,'Landcover Classes'!A:B,2,FALSE)</f>
         <v>Evergreen Forest</v>
       </c>
-      <c r="G57" t="str">
-        <f>VLOOKUP(F57,'Landcover Classes'!B:C,2,FALSE)</f>
+      <c r="H57" t="str">
+        <f>VLOOKUP(G57,'Landcover Classes'!B:C,2,FALSE)</f>
         <v>Forest</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
-      <c r="A58" t="s">
+    <row r="58" spans="1:8">
+      <c r="A58">
+        <v>2018</v>
+      </c>
+      <c r="B58" t="s">
         <v>36</v>
       </c>
-      <c r="B58">
+      <c r="C58">
         <v>11</v>
       </c>
-      <c r="C58" s="1">
+      <c r="D58" s="1">
         <v>1.6991456645396499E-7</v>
       </c>
-      <c r="D58" s="2">
+      <c r="E58" s="2">
         <f t="shared" si="0"/>
         <v>1.6991456645396498E-5</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>24</v>
       </c>
-      <c r="F58" t="str">
-        <f>VLOOKUP(E58,'Landcover Classes'!A:B,2,FALSE)</f>
+      <c r="G58" t="str">
+        <f>VLOOKUP(F58,'Landcover Classes'!A:B,2,FALSE)</f>
         <v>developed, high intensity</v>
       </c>
-      <c r="G58" t="str">
-        <f>VLOOKUP(F58,'Landcover Classes'!B:C,2,FALSE)</f>
+      <c r="H58" t="str">
+        <f>VLOOKUP(G58,'Landcover Classes'!B:C,2,FALSE)</f>
         <v>Developed</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
-      <c r="A59" t="s">
+    <row r="59" spans="1:8">
+      <c r="A59">
+        <v>2018</v>
+      </c>
+      <c r="B59" t="s">
         <v>36</v>
       </c>
-      <c r="B59">
+      <c r="C59">
         <v>12</v>
       </c>
-      <c r="C59" s="1">
+      <c r="D59" s="1">
         <v>2.9515765007141902E-9</v>
       </c>
-      <c r="D59" s="2">
+      <c r="E59" s="2">
         <f t="shared" si="0"/>
         <v>2.9515765007141901E-7</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>31</v>
       </c>
-      <c r="F59" t="str">
-        <f>VLOOKUP(E59,'Landcover Classes'!A:B,2,FALSE)</f>
+      <c r="G59" t="str">
+        <f>VLOOKUP(F59,'Landcover Classes'!A:B,2,FALSE)</f>
         <v>Barren Land (Rock/Sand/Clay)</v>
       </c>
-      <c r="G59" t="str">
-        <f>VLOOKUP(F59,'Landcover Classes'!B:C,2,FALSE)</f>
+      <c r="H59" t="str">
+        <f>VLOOKUP(G59,'Landcover Classes'!B:C,2,FALSE)</f>
         <v>Barren</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
-      <c r="A60" t="s">
+    <row r="60" spans="1:8">
+      <c r="A60">
+        <v>2018</v>
+      </c>
+      <c r="B60" t="s">
         <v>36</v>
       </c>
-      <c r="B60">
+      <c r="C60">
         <v>6</v>
       </c>
-      <c r="C60" s="1">
+      <c r="D60" s="1">
         <v>0</v>
       </c>
-      <c r="D60" s="2">
+      <c r="E60" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>52</v>
       </c>
-      <c r="F60" t="str">
-        <f>VLOOKUP(E60,'Landcover Classes'!A:B,2,FALSE)</f>
+      <c r="G60" t="str">
+        <f>VLOOKUP(F60,'Landcover Classes'!A:B,2,FALSE)</f>
         <v>Shrub/Scrub</v>
       </c>
-      <c r="G60" t="str">
-        <f>VLOOKUP(F60,'Landcover Classes'!B:C,2,FALSE)</f>
+      <c r="H60" t="str">
+        <f>VLOOKUP(G60,'Landcover Classes'!B:C,2,FALSE)</f>
         <v>Shrubland</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
-      <c r="A61" t="s">
+    <row r="61" spans="1:8">
+      <c r="A61">
+        <v>2018</v>
+      </c>
+      <c r="B61" t="s">
         <v>36</v>
       </c>
-      <c r="B61">
+      <c r="C61">
         <v>14</v>
       </c>
-      <c r="C61" s="1">
+      <c r="D61" s="1">
         <v>0</v>
       </c>
-      <c r="D61" s="2">
+      <c r="E61" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>43</v>
       </c>
-      <c r="F61" t="str">
-        <f>VLOOKUP(E61,'Landcover Classes'!A:B,2,FALSE)</f>
+      <c r="G61" t="str">
+        <f>VLOOKUP(F61,'Landcover Classes'!A:B,2,FALSE)</f>
         <v>Mixed Forest</v>
       </c>
-      <c r="G61" t="str">
-        <f>VLOOKUP(F61,'Landcover Classes'!B:C,2,FALSE)</f>
+      <c r="H61" t="str">
+        <f>VLOOKUP(G61,'Landcover Classes'!B:C,2,FALSE)</f>
         <v>Forest</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A47:G61">
-    <sortCondition descending="1" ref="D47:D61"/>
+  <sortState ref="B47:H61">
+    <sortCondition descending="1" ref="E47:E61"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
-    <ignoredError sqref="G18:G31 F18:F31 F32:G46 F47:G61" emptyCellReference="1"/>
+    <ignoredError sqref="H18:H31 G18:G31 G32:H46 G47:H61" emptyCellReference="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -3362,7 +3585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
@@ -3809,4 +4032,143 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>2018</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2">
+        <v>13539</v>
+      </c>
+      <c r="D2">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2018</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>5805</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>2018</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>6326</v>
+      </c>
+      <c r="D4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>2018</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5">
+        <v>790</v>
+      </c>
+      <c r="D5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>2019</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>2019</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>2019</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>2019</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>2019</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>2019</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>